--- a/Stellmotor_Skript/Input_Files/24-06-20_Supplementary Excel.xlsx
+++ b/Stellmotor_Skript/Input_Files/24-06-20_Supplementary Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84a2f0cbe9a5e838/Dokumente/GitHub/MA_DPP/Stellmotor_Skript/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_AD4DB114E441178AC67DF42ABE57EC32683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{220838A4-848B-461D-AED6-AB351D3DF78C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4DB114E441178AC67DF42ABE57EC32683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653D9650-FD24-4E16-86B9-B35BA5FAC594}"/>
   <bookViews>
-    <workbookView xWindow="-34310" yWindow="7410" windowWidth="28800" windowHeight="15230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="18000" windowHeight="11210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <t>b444f4d3-3393-11dd-bd11-0800200c9a66</t>
   </si>
   <si>
-    <t>bb0a26d2-f6a6-4965-8653-2f18ec553bfe</t>
+    <t>001b3cb7-b868-4061-8a91-3e6d7bcc90c6</t>
   </si>
 </sst>
 </file>
@@ -645,18 +645,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="68.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -725,7 +725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -748,7 +748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -771,7 +771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -794,7 +794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -817,7 +817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,7 +840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -863,7 +863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -932,7 +932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -955,7 +955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -978,7 +978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1014,19 +1014,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
